--- a/Data/Processing/2024-02-02/WESTLIFE.xlsx
+++ b/Data/Processing/2024-02-02/WESTLIFE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -495,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI246"/>
+  <dimension ref="A1:AI247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13786,215 +13786,322 @@
     </row>
     <row r="245" spans="1:35">
       <c r="A245" s="2">
-        <v>45323</v>
+        <v>45322</v>
       </c>
       <c r="B245">
-        <v>800</v>
+        <v>824.95</v>
       </c>
       <c r="C245">
-        <v>839.4</v>
+        <v>838</v>
       </c>
       <c r="D245">
-        <v>796.85</v>
+        <v>815</v>
       </c>
       <c r="E245">
-        <v>829.6</v>
+        <v>831.5</v>
       </c>
       <c r="F245">
         <v>815.95</v>
       </c>
       <c r="G245">
-        <v>764398</v>
+        <v>128438</v>
       </c>
       <c r="H245" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I245">
-        <v>3.57</v>
+        <v>0.79</v>
       </c>
       <c r="J245">
-        <v>4.69</v>
+        <v>1.56</v>
       </c>
       <c r="K245">
-        <v>-0.4</v>
+        <v>-1.22</v>
       </c>
       <c r="L245">
-        <v>-15.95</v>
+        <v>9</v>
       </c>
       <c r="M245">
-        <v>-1.120000000000001</v>
+        <v>-0.77</v>
       </c>
       <c r="N245">
-        <v>5.32</v>
+        <v>2.79</v>
       </c>
       <c r="O245">
-        <v>837.5284090909091</v>
+        <v>837.5715909090908</v>
       </c>
       <c r="P245">
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R245">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="S245">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T245">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U245">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="V245">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="W245">
-        <v>838.35</v>
+        <v>838</v>
       </c>
       <c r="X245">
         <v>0</v>
       </c>
       <c r="Y245">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="Z245">
-        <v>0.62</v>
+        <v>-1.22</v>
       </c>
       <c r="AA245">
-        <v>4.57</v>
+        <v>1.56</v>
       </c>
       <c r="AB245">
-        <v>3.98</v>
+        <v>2.74</v>
       </c>
       <c r="AC245">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="AD245">
-        <v>838.35</v>
+        <v>838</v>
       </c>
       <c r="AE245">
         <v>0</v>
       </c>
       <c r="AF245">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="AG245">
-        <v>0.62</v>
+        <v>-1.22</v>
       </c>
       <c r="AH245">
-        <v>4.57</v>
+        <v>1.56</v>
       </c>
       <c r="AI245">
-        <v>3.98</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="246" spans="1:35">
       <c r="A246" s="2">
-        <v>45324</v>
+        <v>45323</v>
       </c>
       <c r="B246">
-        <v>844.45</v>
+        <v>800</v>
       </c>
       <c r="C246">
-        <v>856.65</v>
+        <v>839.4</v>
       </c>
       <c r="D246">
-        <v>833.2</v>
+        <v>796.85</v>
       </c>
       <c r="E246">
-        <v>846.65</v>
+        <v>829.6</v>
       </c>
       <c r="F246">
-        <v>829.6</v>
+        <v>831.5</v>
       </c>
       <c r="G246">
-        <v>177570</v>
+        <v>764398</v>
       </c>
       <c r="H246" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I246">
-        <v>0.26</v>
+        <v>3.57</v>
       </c>
       <c r="J246">
-        <v>1.42</v>
+        <v>4.69</v>
       </c>
       <c r="K246">
-        <v>-1.35</v>
+        <v>-0.4</v>
       </c>
       <c r="L246">
-        <v>14.85</v>
+        <v>-31.5</v>
       </c>
       <c r="M246">
-        <v>-1.16</v>
+        <v>-1.120000000000001</v>
       </c>
       <c r="N246">
-        <v>2.78</v>
+        <v>5.32</v>
       </c>
       <c r="O246">
-        <v>836.7125</v>
+        <v>836.3681818181819</v>
       </c>
       <c r="P246">
         <v>1</v>
       </c>
       <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="R246">
+        <v>75</v>
+      </c>
+      <c r="S246">
+        <v>31</v>
+      </c>
+      <c r="T246">
+        <v>44</v>
+      </c>
+      <c r="U246">
+        <v>32</v>
+      </c>
+      <c r="V246">
+        <v>805</v>
+      </c>
+      <c r="W246">
+        <v>838.35</v>
+      </c>
+      <c r="X246">
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <v>160</v>
+      </c>
+      <c r="Z246">
+        <v>0.62</v>
+      </c>
+      <c r="AA246">
+        <v>4.57</v>
+      </c>
+      <c r="AB246">
+        <v>3.98</v>
+      </c>
+      <c r="AC246">
+        <v>805</v>
+      </c>
+      <c r="AD246">
+        <v>838.35</v>
+      </c>
+      <c r="AE246">
+        <v>0</v>
+      </c>
+      <c r="AF246">
+        <v>160</v>
+      </c>
+      <c r="AG246">
+        <v>0.62</v>
+      </c>
+      <c r="AH246">
+        <v>4.57</v>
+      </c>
+      <c r="AI246">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="247" spans="1:35">
+      <c r="A247" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B247">
+        <v>844.45</v>
+      </c>
+      <c r="C247">
+        <v>856.65</v>
+      </c>
+      <c r="D247">
+        <v>833.2</v>
+      </c>
+      <c r="E247">
+        <v>846.65</v>
+      </c>
+      <c r="F247">
+        <v>829.6</v>
+      </c>
+      <c r="G247">
+        <v>177570</v>
+      </c>
+      <c r="H247" t="s">
+        <v>35</v>
+      </c>
+      <c r="I247">
+        <v>0.26</v>
+      </c>
+      <c r="J247">
+        <v>1.42</v>
+      </c>
+      <c r="K247">
+        <v>-1.35</v>
+      </c>
+      <c r="L247">
+        <v>14.85</v>
+      </c>
+      <c r="M247">
+        <v>-1.16</v>
+      </c>
+      <c r="N247">
+        <v>2.78</v>
+      </c>
+      <c r="O247">
+        <v>835.1602272727272</v>
+      </c>
+      <c r="P247">
+        <v>1</v>
+      </c>
+      <c r="Q247">
         <v>10</v>
       </c>
-      <c r="R246">
+      <c r="R247">
         <v>65</v>
       </c>
-      <c r="S246">
+      <c r="S247">
         <v>35</v>
       </c>
-      <c r="T246">
+      <c r="T247">
         <v>40</v>
       </c>
-      <c r="U246">
+      <c r="U247">
         <v>19</v>
       </c>
-      <c r="V246">
+      <c r="V247">
         <v>834.25</v>
       </c>
-      <c r="W246">
+      <c r="W247">
         <v>856.65</v>
       </c>
-      <c r="X246">
+      <c r="X247">
         <v>75</v>
       </c>
-      <c r="Y246">
+      <c r="Y247">
         <v>65</v>
       </c>
-      <c r="Z246">
+      <c r="Z247">
         <v>-1.22</v>
       </c>
-      <c r="AA246">
+      <c r="AA247">
         <v>1.42</v>
       </c>
-      <c r="AB246">
+      <c r="AB247">
         <v>2.61</v>
       </c>
-      <c r="AC246">
+      <c r="AC247">
         <v>834.25</v>
       </c>
-      <c r="AD246">
+      <c r="AD247">
         <v>856.65</v>
       </c>
-      <c r="AE246">
+      <c r="AE247">
         <v>75</v>
       </c>
-      <c r="AF246">
+      <c r="AF247">
         <v>65</v>
       </c>
-      <c r="AG246">
+      <c r="AG247">
         <v>-1.22</v>
       </c>
-      <c r="AH246">
+      <c r="AH247">
         <v>1.42</v>
       </c>
-      <c r="AI246">
+      <c r="AI247">
         <v>2.61</v>
       </c>
     </row>
